--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DE02D8-317A-4728-93E8-13A42C131B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="651">
   <si>
     <t>Level1</t>
   </si>
@@ -1952,13 +1953,28 @@
   </si>
   <si>
     <t>Schistosomiasis</t>
+  </si>
+  <si>
+    <t>A.2.02.2</t>
+  </si>
+  <si>
+    <t>intest_paratyph</t>
+  </si>
+  <si>
+    <t>Paratyphoid fever</t>
+  </si>
+  <si>
+    <t>gyne_polycystic</t>
+  </si>
+  <si>
+    <t>Polycystic ovarian syndrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1969,6 +1985,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2049,19 +2071,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G262" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G262"/>
-  <sortState ref="A2:G243">
-    <sortCondition ref="E1:E243"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G264" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G245">
+    <sortCondition ref="E1:E245"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Level1" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Level2" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Level3" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Level4" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Outline" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="ID" dataDxfId="0"/>
-    <tableColumn id="6" name="Code" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Level2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level3" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Level4" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Outline" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ID" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Code" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2143,6 +2165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2178,6 +2217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2353,10 +2409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2405,7 +2463,7 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2474,7 +2532,7 @@
       <c r="E5" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" t="s">
@@ -2497,7 +2555,7 @@
       <c r="E6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" t="s">
@@ -2566,7 +2624,7 @@
       <c r="E9" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" t="s">
@@ -2612,7 +2670,7 @@
       <c r="E11" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>9</v>
       </c>
       <c r="G11" t="s">
@@ -2635,7 +2693,7 @@
       <c r="E12" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" t="s">
@@ -2658,7 +2716,7 @@
       <c r="E13" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>11</v>
       </c>
       <c r="G13" t="s">
@@ -2681,7 +2739,7 @@
       <c r="E14" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>12</v>
       </c>
       <c r="G14" t="s">
@@ -2704,7 +2762,7 @@
       <c r="E15" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>13</v>
       </c>
       <c r="G15" t="s">
@@ -2750,7 +2808,7 @@
       <c r="E17" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>15</v>
       </c>
       <c r="G17" t="s">
@@ -2790,17 +2848,17 @@
       <c r="C19" t="s">
         <v>222</v>
       </c>
-      <c r="D19" t="s">
-        <v>129</v>
+      <c r="D19" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F19">
+        <v>646</v>
+      </c>
+      <c r="F19" s="2">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>283</v>
+      <c r="G19" s="5" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,19 +2869,19 @@
         <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F20">
+        <v>577</v>
+      </c>
+      <c r="F20" s="2">
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2837,16 +2895,16 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F21">
+        <v>578</v>
+      </c>
+      <c r="F21" s="2">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2860,16 +2918,16 @@
         <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F22">
+        <v>579</v>
+      </c>
+      <c r="F22" s="2">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,16 +2941,16 @@
         <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F23">
+        <v>580</v>
+      </c>
+      <c r="F23" s="2">
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2906,16 +2964,16 @@
         <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F24">
+        <v>581</v>
+      </c>
+      <c r="F24" s="2">
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2926,42 +2984,42 @@
         <v>213</v>
       </c>
       <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F25" s="2">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
         <v>632</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>632</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F25">
-        <v>23</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F26" s="2">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F26" s="3">
-        <v>24</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2972,42 +3030,42 @@
         <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="F27" s="3">
         <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F28" s="3">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F28">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3021,16 +3079,16 @@
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F29">
+        <v>635</v>
+      </c>
+      <c r="F29" s="2">
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3044,16 +3102,16 @@
         <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F30">
+        <v>636</v>
+      </c>
+      <c r="F30" s="2">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,40 +3124,40 @@
       <c r="C31" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>526</v>
+      <c r="D31" t="s">
+        <v>133</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F31" s="2">
         <v>29</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F32" s="2">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F32" s="3">
-        <v>30</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,19 +3168,19 @@
         <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3133,19 +3191,19 @@
         <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>288</v>
+        <v>586</v>
       </c>
       <c r="F34" s="3">
         <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,19 +3214,19 @@
         <v>213</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>562</v>
+        <v>288</v>
       </c>
       <c r="F35" s="3">
         <v>33</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3179,19 +3237,19 @@
         <v>213</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F36" s="3">
         <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>531</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3202,19 +3260,19 @@
         <v>213</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>639</v>
+        <v>563</v>
       </c>
       <c r="F37" s="3">
         <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,22 +3280,22 @@
         <v>203</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>290</v>
+        <v>639</v>
       </c>
       <c r="F38" s="3">
         <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>330</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3248,19 +3306,19 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>631</v>
+        <v>96</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F39" s="3">
         <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>590</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,16 +3332,16 @@
         <v>631</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>589</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3">
         <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>333</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3297,16 +3355,16 @@
         <v>631</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F41" s="3">
         <v>39</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3320,16 +3378,16 @@
         <v>631</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>601</v>
+        <v>248</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="F42" s="3">
         <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>602</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,16 +3401,16 @@
         <v>631</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F43" s="3">
         <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3366,16 +3424,16 @@
         <v>631</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="F44" s="3">
         <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,16 +3447,16 @@
         <v>631</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F45" s="3">
         <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,16 +3470,16 @@
         <v>631</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F46" s="3">
         <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>608</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,16 +3493,16 @@
         <v>631</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F47" s="3">
         <v>45</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>641</v>
+      <c r="G47" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3458,16 +3516,16 @@
         <v>631</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="F48" s="3">
         <v>46</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3481,16 +3539,16 @@
         <v>631</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="F49" s="3">
         <v>47</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>644</v>
+      <c r="G49" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,16 +3562,16 @@
         <v>631</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>135</v>
+        <v>645</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F50" s="3">
         <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>317</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3521,22 +3579,22 @@
         <v>203</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>98</v>
+        <v>631</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>294</v>
+        <v>643</v>
       </c>
       <c r="F51" s="3">
         <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3547,19 +3605,19 @@
         <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>560</v>
+        <v>98</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" s="3">
         <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3570,19 +3628,19 @@
         <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F53" s="3">
         <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3593,19 +3651,19 @@
         <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F54" s="3">
         <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,19 +3674,19 @@
         <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>559</v>
+        <v>249</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F55" s="3">
         <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3639,19 +3697,19 @@
         <v>231</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" s="3">
         <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3662,19 +3720,19 @@
         <v>231</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>564</v>
+        <v>299</v>
       </c>
       <c r="F57" s="3">
         <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3685,19 +3743,19 @@
         <v>231</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F58" s="3">
         <v>56</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3711,16 +3769,16 @@
         <v>556</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>628</v>
+        <v>539</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F59" s="3">
         <v>57</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3731,19 +3789,19 @@
         <v>231</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>542</v>
+        <v>628</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>630</v>
+        <v>566</v>
       </c>
       <c r="F60" s="3">
         <v>58</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,22 +3809,22 @@
         <v>203</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>261</v>
+        <v>557</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>261</v>
+        <v>542</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="F61" s="3">
         <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3777,19 +3835,19 @@
         <v>234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>60</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3800,19 +3858,19 @@
         <v>234</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F63" s="3">
         <v>61</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3823,19 +3881,19 @@
         <v>234</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F64" s="3">
         <v>62</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3846,19 +3904,19 @@
         <v>234</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F65" s="3">
         <v>63</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,22 +3924,22 @@
         <v>203</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" s="3">
         <v>64</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,19 +3950,19 @@
         <v>229</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F67" s="3">
         <v>65</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3915,19 +3973,19 @@
         <v>229</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F68" s="3">
         <v>66</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,61 +3996,63 @@
         <v>229</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F69" s="3">
         <v>67</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="3">
+        <v>68</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <v>68</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1">
+        <v>69</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" t="s">
-        <v>242</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4006,14 +4066,14 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,14 +4087,14 @@
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>71</v>
       </c>
       <c r="G73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,56 +4108,56 @@
         <v>74</v>
       </c>
       <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
+        <v>72</v>
+      </c>
+      <c r="G74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
         <v>522</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74">
-        <v>72</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3">
-        <v>73</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3">
+        <v>74</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4111,14 +4171,14 @@
         <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>75</v>
       </c>
       <c r="G77" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4132,14 +4192,14 @@
         <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4153,14 +4213,14 @@
         <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>77</v>
       </c>
       <c r="G79" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,14 +4234,14 @@
         <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4195,14 +4255,14 @@
         <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>79</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4213,17 +4273,17 @@
         <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4236,15 +4296,15 @@
       <c r="C83" t="s">
         <v>175</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>624</v>
+      <c r="D83" t="s">
+        <v>175</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <v>81</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>623</v>
+      <c r="G83" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,14 +4318,14 @@
         <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <v>82</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4279,14 +4339,14 @@
         <v>175</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <v>83</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4300,14 +4360,14 @@
         <v>175</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <v>84</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>610</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,35 +4381,35 @@
         <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
         <v>85</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>86</v>
       </c>
-      <c r="G88" t="s">
-        <v>519</v>
+      <c r="G88" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,14 +4423,14 @@
         <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4384,14 +4444,14 @@
         <v>218</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,15 +4464,15 @@
       <c r="C91" t="s">
         <v>218</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>536</v>
+      <c r="D91" t="s">
+        <v>18</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
         <v>89</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>546</v>
+      <c r="G91" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4423,17 +4483,17 @@
         <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" t="s">
-        <v>171</v>
+        <v>218</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>90</v>
       </c>
-      <c r="G92" t="s">
-        <v>517</v>
+      <c r="G92" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4447,14 +4507,14 @@
         <v>240</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>91</v>
       </c>
       <c r="G93" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,14 +4528,14 @@
         <v>240</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>92</v>
       </c>
       <c r="G94" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,56 +4549,56 @@
         <v>240</v>
       </c>
       <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2">
+        <v>93</v>
+      </c>
+      <c r="G95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" t="s">
         <v>174</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95">
-        <v>93</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
+        <v>94</v>
+      </c>
+      <c r="G96" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3">
-        <v>94</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="E97" s="3"/>
+      <c r="F97" s="3">
+        <v>95</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97">
-        <v>95</v>
-      </c>
-      <c r="G97" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,17 +4609,17 @@
         <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>96</v>
       </c>
       <c r="G98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4573,14 +4633,14 @@
         <v>237</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>97</v>
       </c>
       <c r="G99" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,14 +4654,14 @@
         <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>98</v>
       </c>
       <c r="G100" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4615,56 +4675,56 @@
         <v>237</v>
       </c>
       <c r="D101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" t="s">
         <v>152</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101">
-        <v>99</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2">
+        <v>100</v>
+      </c>
+      <c r="G102" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3">
+        <v>101</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103">
-        <v>101</v>
-      </c>
-      <c r="G103" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4675,17 +4735,17 @@
         <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>102</v>
       </c>
       <c r="G104" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,35 +4759,35 @@
         <v>214</v>
       </c>
       <c r="D105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2">
+        <v>103</v>
+      </c>
+      <c r="G105" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" t="s">
         <v>197</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105">
-        <v>103</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2">
+        <v>104</v>
+      </c>
+      <c r="G106" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3">
-        <v>104</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4738,59 +4798,59 @@
         <v>206</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3">
         <v>105</v>
       </c>
       <c r="G107" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3">
+        <v>106</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2">
-        <v>106</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B109" t="s">
         <v>206</v>
       </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" t="s">
-        <v>126</v>
+      <c r="C109" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E109" s="2"/>
-      <c r="F109">
+      <c r="F109" s="2">
         <v>107</v>
       </c>
-      <c r="G109" t="s">
-        <v>501</v>
+      <c r="G109" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4804,14 +4864,14 @@
         <v>221</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110">
+      <c r="F110" s="2">
         <v>108</v>
       </c>
       <c r="G110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4825,35 +4885,35 @@
         <v>221</v>
       </c>
       <c r="D111" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2">
+        <v>109</v>
+      </c>
+      <c r="G111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" t="s">
         <v>191</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111">
-        <v>109</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2">
+        <v>110</v>
+      </c>
+      <c r="G112" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3">
-        <v>110</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4864,38 +4924,38 @@
         <v>206</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3">
         <v>111</v>
       </c>
       <c r="G113" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3">
+        <v>112</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" t="s">
-        <v>206</v>
-      </c>
-      <c r="C114" t="s">
-        <v>226</v>
-      </c>
-      <c r="D114" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114">
-        <v>112</v>
-      </c>
-      <c r="G114" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4909,14 +4969,14 @@
         <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>594</v>
+        <v>62</v>
       </c>
       <c r="E115" s="2"/>
-      <c r="F115">
+      <c r="F115" s="2">
         <v>113</v>
       </c>
       <c r="G115" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4927,17 +4987,17 @@
         <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>594</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>114</v>
       </c>
       <c r="G116" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4951,14 +5011,14 @@
         <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="F117">
+      <c r="F117" s="2">
         <v>115</v>
       </c>
       <c r="G117" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4972,56 +5032,56 @@
         <v>239</v>
       </c>
       <c r="D118" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2">
+        <v>116</v>
+      </c>
+      <c r="G118" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" t="s">
         <v>260</v>
       </c>
-      <c r="E118" s="2"/>
-      <c r="F118">
-        <v>116</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2">
+        <v>117</v>
+      </c>
+      <c r="G119" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3">
-        <v>117</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3">
         <v>118</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5032,17 +5092,17 @@
         <v>210</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3">
         <v>119</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5053,38 +5113,38 @@
         <v>210</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3">
         <v>120</v>
       </c>
       <c r="G122" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3">
+        <v>121</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D123" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123">
-        <v>121</v>
-      </c>
-      <c r="G123" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5098,14 +5158,14 @@
         <v>230</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="F124">
+      <c r="F124" s="2">
         <v>122</v>
       </c>
       <c r="G124" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5119,35 +5179,35 @@
         <v>230</v>
       </c>
       <c r="D125" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2">
+        <v>123</v>
+      </c>
+      <c r="G125" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" t="s">
         <v>181</v>
       </c>
-      <c r="E125" s="2"/>
-      <c r="F125">
-        <v>123</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="E126" s="2"/>
+      <c r="F126" s="2">
+        <v>124</v>
+      </c>
+      <c r="G126" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3">
-        <v>124</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5158,17 +5218,17 @@
         <v>210</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3">
         <v>125</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5179,38 +5239,38 @@
         <v>210</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3">
         <v>126</v>
       </c>
       <c r="G128" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3">
+        <v>127</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129" t="s">
-        <v>119</v>
-      </c>
-      <c r="D129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129">
-        <v>127</v>
-      </c>
-      <c r="G129" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5224,14 +5284,14 @@
         <v>119</v>
       </c>
       <c r="D130" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130">
+      <c r="F130" s="2">
         <v>128</v>
       </c>
       <c r="G130" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,14 +5305,14 @@
         <v>119</v>
       </c>
       <c r="D131" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="F131">
+      <c r="F131" s="2">
         <v>129</v>
       </c>
       <c r="G131" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5266,35 +5326,35 @@
         <v>119</v>
       </c>
       <c r="D132" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2">
+        <v>130</v>
+      </c>
+      <c r="G132" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" t="s">
         <v>195</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132">
-        <v>130</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="E133" s="2"/>
+      <c r="F133" s="2">
+        <v>131</v>
+      </c>
+      <c r="G133" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3">
-        <v>131</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5305,17 +5365,17 @@
         <v>210</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3">
         <v>132</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5323,20 +5383,20 @@
         <v>200</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3">
         <v>133</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5347,17 +5407,17 @@
         <v>217</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3">
         <v>134</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5368,38 +5428,38 @@
         <v>217</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3">
         <v>135</v>
       </c>
       <c r="G137" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3">
+        <v>136</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>200</v>
-      </c>
-      <c r="B138" t="s">
-        <v>217</v>
-      </c>
-      <c r="C138" t="s">
-        <v>120</v>
-      </c>
-      <c r="D138" t="s">
-        <v>33</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138">
-        <v>136</v>
-      </c>
-      <c r="G138" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5413,14 +5473,14 @@
         <v>120</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139">
+      <c r="F139" s="2">
         <v>137</v>
       </c>
       <c r="G139" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5434,14 +5494,14 @@
         <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2"/>
-      <c r="F140">
+      <c r="F140" s="2">
         <v>138</v>
       </c>
       <c r="G140" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5455,14 +5515,14 @@
         <v>120</v>
       </c>
       <c r="D141" t="s">
-        <v>622</v>
+        <v>178</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="F141">
+      <c r="F141" s="2">
         <v>139</v>
       </c>
       <c r="G141" t="s">
-        <v>621</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5473,17 +5533,17 @@
         <v>217</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>622</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142">
+      <c r="F142" s="2">
         <v>140</v>
       </c>
       <c r="G142" t="s">
-        <v>436</v>
+        <v>621</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5497,14 +5557,14 @@
         <v>216</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143">
+      <c r="F143" s="2">
         <v>141</v>
       </c>
       <c r="G143" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5518,14 +5578,14 @@
         <v>216</v>
       </c>
       <c r="D144" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144">
+      <c r="F144" s="2">
         <v>142</v>
       </c>
       <c r="G144" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,35 +5599,35 @@
         <v>216</v>
       </c>
       <c r="D145" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2">
+        <v>143</v>
+      </c>
+      <c r="G145" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D146" t="s">
         <v>177</v>
       </c>
-      <c r="E145" s="2"/>
-      <c r="F145">
-        <v>143</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="E146" s="2"/>
+      <c r="F146" s="2">
+        <v>144</v>
+      </c>
+      <c r="G146" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3">
-        <v>144</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5575,41 +5635,41 @@
         <v>200</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3">
         <v>145</v>
       </c>
       <c r="G147" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3">
+        <v>146</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" t="s">
-        <v>212</v>
-      </c>
-      <c r="C148" t="s">
-        <v>38</v>
-      </c>
-      <c r="D148" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148">
-        <v>146</v>
-      </c>
-      <c r="G148" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5623,14 +5683,14 @@
         <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149">
+      <c r="F149" s="2">
         <v>147</v>
       </c>
       <c r="G149" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,14 +5704,14 @@
         <v>38</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="F150">
+      <c r="F150" s="2">
         <v>148</v>
       </c>
       <c r="G150" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5665,35 +5725,35 @@
         <v>38</v>
       </c>
       <c r="D151" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2">
+        <v>149</v>
+      </c>
+      <c r="G151" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" t="s">
+        <v>212</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s">
         <v>37</v>
       </c>
-      <c r="E151" s="2"/>
-      <c r="F151">
-        <v>149</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2">
+        <v>150</v>
+      </c>
+      <c r="G152" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3">
-        <v>150</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,38 +5764,38 @@
         <v>212</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3">
         <v>151</v>
       </c>
       <c r="G153" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3">
+        <v>152</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>200</v>
-      </c>
-      <c r="B154" t="s">
-        <v>212</v>
-      </c>
-      <c r="C154" t="s">
-        <v>236</v>
-      </c>
-      <c r="D154" t="s">
-        <v>81</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154">
-        <v>152</v>
-      </c>
-      <c r="G154" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5749,14 +5809,14 @@
         <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="F155">
+      <c r="F155" s="2">
         <v>153</v>
       </c>
       <c r="G155" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5770,14 +5830,14 @@
         <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="F156">
+      <c r="F156" s="2">
         <v>154</v>
       </c>
       <c r="G156" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5791,14 +5851,14 @@
         <v>236</v>
       </c>
       <c r="D157" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E157" s="2"/>
-      <c r="F157">
+      <c r="F157" s="2">
         <v>155</v>
       </c>
       <c r="G157" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5812,14 +5872,14 @@
         <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E158" s="2"/>
-      <c r="F158">
+      <c r="F158" s="2">
         <v>156</v>
       </c>
       <c r="G158" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5830,17 +5890,17 @@
         <v>212</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D159" t="s">
-        <v>599</v>
+        <v>125</v>
       </c>
       <c r="E159" s="2"/>
-      <c r="F159">
+      <c r="F159" s="2">
         <v>157</v>
       </c>
       <c r="G159" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5853,15 +5913,15 @@
       <c r="C160" t="s">
         <v>227</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>600</v>
+      <c r="D160" t="s">
+        <v>599</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
         <v>158</v>
       </c>
-      <c r="G160" s="2" t="s">
-        <v>598</v>
+      <c r="G160" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5874,15 +5934,15 @@
       <c r="C161" t="s">
         <v>227</v>
       </c>
-      <c r="D161" t="s">
-        <v>69</v>
+      <c r="D161" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="E161" s="2"/>
-      <c r="F161">
+      <c r="F161" s="2">
         <v>159</v>
       </c>
-      <c r="G161" t="s">
-        <v>470</v>
+      <c r="G161" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5896,14 +5956,14 @@
         <v>227</v>
       </c>
       <c r="D162" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E162" s="2"/>
-      <c r="F162">
+      <c r="F162" s="2">
         <v>160</v>
       </c>
       <c r="G162" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5917,14 +5977,14 @@
         <v>227</v>
       </c>
       <c r="D163" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E163" s="2"/>
-      <c r="F163">
+      <c r="F163" s="2">
         <v>161</v>
       </c>
       <c r="G163" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5935,17 +5995,17 @@
         <v>212</v>
       </c>
       <c r="C164" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2"/>
-      <c r="F164">
+      <c r="F164" s="2">
         <v>162</v>
       </c>
       <c r="G164" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5956,17 +6016,17 @@
         <v>212</v>
       </c>
       <c r="C165" t="s">
-        <v>211</v>
-      </c>
-      <c r="D165" t="s">
-        <v>63</v>
+        <v>227</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="E165" s="2"/>
-      <c r="F165">
+      <c r="F165" s="2">
         <v>163</v>
       </c>
-      <c r="G165" t="s">
-        <v>373</v>
+      <c r="G165" s="5" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5980,14 +6040,14 @@
         <v>211</v>
       </c>
       <c r="D166" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166">
+      <c r="F166" s="2">
         <v>164</v>
       </c>
       <c r="G166" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6001,14 +6061,14 @@
         <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167">
+      <c r="F167" s="2">
         <v>165</v>
       </c>
       <c r="G167" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6022,14 +6082,14 @@
         <v>211</v>
       </c>
       <c r="D168" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="E168" s="2"/>
-      <c r="F168">
+      <c r="F168" s="2">
         <v>166</v>
       </c>
       <c r="G168" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6040,17 +6100,17 @@
         <v>212</v>
       </c>
       <c r="C169" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E169" s="2"/>
-      <c r="F169">
+      <c r="F169" s="2">
         <v>167</v>
       </c>
       <c r="G169" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6061,17 +6121,17 @@
         <v>212</v>
       </c>
       <c r="C170" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="F170">
+      <c r="F170" s="2">
         <v>168</v>
       </c>
       <c r="G170" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6085,14 +6145,14 @@
         <v>220</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2"/>
-      <c r="F171">
+      <c r="F171" s="2">
         <v>169</v>
       </c>
       <c r="G171" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6106,56 +6166,56 @@
         <v>220</v>
       </c>
       <c r="D172" t="s">
+        <v>162</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2">
+        <v>170</v>
+      </c>
+      <c r="G172" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" t="s">
+        <v>212</v>
+      </c>
+      <c r="C173" t="s">
+        <v>220</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2">
+        <v>171</v>
+      </c>
+      <c r="G173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" t="s">
+        <v>212</v>
+      </c>
+      <c r="C174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" t="s">
         <v>192</v>
       </c>
-      <c r="E172" s="2"/>
-      <c r="F172">
-        <v>170</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="E174" s="2"/>
+      <c r="F174" s="2">
+        <v>172</v>
+      </c>
+      <c r="G174" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3">
-        <v>171</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3">
-        <v>172</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6166,17 +6226,17 @@
         <v>215</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3">
         <v>173</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6187,17 +6247,17 @@
         <v>215</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3">
         <v>174</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6208,59 +6268,59 @@
         <v>215</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3">
         <v>175</v>
       </c>
       <c r="G177" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3">
+        <v>176</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3">
+        <v>177</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" t="s">
-        <v>215</v>
-      </c>
-      <c r="C178" t="s">
-        <v>123</v>
-      </c>
-      <c r="D178" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178">
-        <v>176</v>
-      </c>
-      <c r="G178" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>200</v>
-      </c>
-      <c r="B179" t="s">
-        <v>215</v>
-      </c>
-      <c r="C179" t="s">
-        <v>123</v>
-      </c>
-      <c r="D179" t="s">
-        <v>47</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179">
-        <v>177</v>
-      </c>
-      <c r="G179" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6274,14 +6334,14 @@
         <v>123</v>
       </c>
       <c r="D180" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E180" s="2"/>
-      <c r="F180">
+      <c r="F180" s="2">
         <v>178</v>
       </c>
       <c r="G180" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6295,14 +6355,14 @@
         <v>123</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E181" s="2"/>
-      <c r="F181">
+      <c r="F181" s="2">
         <v>179</v>
       </c>
       <c r="G181" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6316,56 +6376,56 @@
         <v>123</v>
       </c>
       <c r="D182" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2">
+        <v>180</v>
+      </c>
+      <c r="G182" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" t="s">
+        <v>123</v>
+      </c>
+      <c r="D183" t="s">
+        <v>68</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2">
+        <v>181</v>
+      </c>
+      <c r="G183" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" t="s">
+        <v>123</v>
+      </c>
+      <c r="D184" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="2"/>
-      <c r="F182">
-        <v>180</v>
-      </c>
-      <c r="G182" t="s">
+      <c r="E184" s="2"/>
+      <c r="F184" s="2">
+        <v>182</v>
+      </c>
+      <c r="G184" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3">
-        <v>181</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3">
-        <v>182</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6376,17 +6436,17 @@
         <v>215</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3">
         <v>183</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6397,17 +6457,17 @@
         <v>215</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3">
         <v>184</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6418,17 +6478,17 @@
         <v>215</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3">
         <v>185</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6436,62 +6496,62 @@
         <v>200</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3">
         <v>186</v>
       </c>
       <c r="G188" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3">
+        <v>187</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3">
+        <v>188</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>200</v>
-      </c>
-      <c r="B189" t="s">
-        <v>208</v>
-      </c>
-      <c r="C189" t="s">
-        <v>223</v>
-      </c>
-      <c r="D189" t="s">
-        <v>244</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="F189">
-        <v>187</v>
-      </c>
-      <c r="G189" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" t="s">
-        <v>208</v>
-      </c>
-      <c r="C190" t="s">
-        <v>223</v>
-      </c>
-      <c r="D190" t="s">
-        <v>27</v>
-      </c>
-      <c r="E190" s="2"/>
-      <c r="F190">
-        <v>188</v>
-      </c>
-      <c r="G190" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6505,14 +6565,14 @@
         <v>223</v>
       </c>
       <c r="D191" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191">
+      <c r="F191" s="2">
         <v>189</v>
       </c>
       <c r="G191" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6526,14 +6586,14 @@
         <v>223</v>
       </c>
       <c r="D192" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E192" s="2"/>
-      <c r="F192">
+      <c r="F192" s="2">
         <v>190</v>
       </c>
       <c r="G192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,14 +6607,14 @@
         <v>223</v>
       </c>
       <c r="D193" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="E193" s="2"/>
-      <c r="F193">
+      <c r="F193" s="2">
         <v>191</v>
       </c>
       <c r="G193" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6565,80 +6625,80 @@
         <v>208</v>
       </c>
       <c r="C194" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="E194" s="2"/>
-      <c r="F194">
+      <c r="F194" s="2">
         <v>192</v>
       </c>
       <c r="G194" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" s="2" t="s">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
         <v>208</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>524</v>
+      <c r="C195" t="s">
+        <v>223</v>
+      </c>
+      <c r="D195" t="s">
+        <v>124</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2">
         <v>193</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" t="s">
+        <v>209</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2">
+        <v>194</v>
+      </c>
+      <c r="G196" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2">
+        <v>195</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3">
-        <v>194</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" t="s">
-        <v>233</v>
-      </c>
-      <c r="C197" t="s">
-        <v>134</v>
-      </c>
-      <c r="D197" t="s">
-        <v>118</v>
-      </c>
-      <c r="E197" s="2"/>
-      <c r="F197">
-        <v>195</v>
-      </c>
-      <c r="G197" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6646,20 +6706,20 @@
         <v>200</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3">
         <v>196</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6673,119 +6733,119 @@
         <v>134</v>
       </c>
       <c r="D199" t="s">
+        <v>118</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2">
+        <v>197</v>
+      </c>
+      <c r="G199" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3">
+        <v>198</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D201" t="s">
         <v>164</v>
       </c>
-      <c r="E199" s="2"/>
-      <c r="F199">
-        <v>197</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="E201" s="2"/>
+      <c r="F201" s="2">
+        <v>199</v>
+      </c>
+      <c r="G201" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
         <v>233</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C202" t="s">
         <v>134</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D202" t="s">
         <v>182</v>
       </c>
-      <c r="E200" s="2"/>
-      <c r="F200">
-        <v>198</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="E202" s="2"/>
+      <c r="F202" s="2">
+        <v>200</v>
+      </c>
+      <c r="G202" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="3" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3">
+      <c r="E203" s="3"/>
+      <c r="F203" s="3">
+        <v>201</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G201" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3">
-        <v>200</v>
-      </c>
-      <c r="G202" s="3" t="s">
+      <c r="E204" s="3"/>
+      <c r="F204" s="3">
+        <v>202</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" t="s">
-        <v>199</v>
-      </c>
-      <c r="C203" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="2"/>
-      <c r="F203">
-        <v>201</v>
-      </c>
-      <c r="G203" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>200</v>
-      </c>
-      <c r="B204" t="s">
-        <v>199</v>
-      </c>
-      <c r="C204" t="s">
-        <v>23</v>
-      </c>
-      <c r="D204" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" s="2"/>
-      <c r="F204">
-        <v>202</v>
-      </c>
-      <c r="G204" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6796,17 +6856,17 @@
         <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="F205">
+      <c r="F205" s="2">
         <v>203</v>
       </c>
       <c r="G205" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6817,17 +6877,17 @@
         <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="F206">
+      <c r="F206" s="2">
         <v>204</v>
       </c>
       <c r="G206" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6838,17 +6898,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="F207">
+      <c r="F207" s="2">
         <v>205</v>
       </c>
       <c r="G207" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6859,17 +6919,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E208" s="2"/>
-      <c r="F208">
+      <c r="F208" s="2">
         <v>206</v>
       </c>
       <c r="G208" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6880,17 +6940,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E209" s="2"/>
-      <c r="F209">
+      <c r="F209" s="2">
         <v>207</v>
       </c>
       <c r="G209" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6901,17 +6961,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D210" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E210" s="2"/>
-      <c r="F210">
+      <c r="F210" s="2">
         <v>208</v>
       </c>
       <c r="G210" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6922,17 +6982,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D211" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="F211">
+      <c r="F211" s="2">
         <v>209</v>
       </c>
       <c r="G211" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6943,17 +7003,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D212" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="F212">
+      <c r="F212" s="2">
         <v>210</v>
       </c>
       <c r="G212" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6964,17 +7024,17 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213">
+      <c r="F213" s="2">
         <v>211</v>
       </c>
       <c r="G213" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6985,17 +7045,17 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="F214">
+      <c r="F214" s="2">
         <v>212</v>
       </c>
       <c r="G214" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7006,17 +7066,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="F215">
+      <c r="F215" s="2">
         <v>213</v>
       </c>
       <c r="G215" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7030,14 +7090,14 @@
         <v>93</v>
       </c>
       <c r="D216" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="F216">
+      <c r="F216" s="2">
         <v>214</v>
       </c>
       <c r="G216" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7051,14 +7111,14 @@
         <v>93</v>
       </c>
       <c r="D217" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217">
+      <c r="F217" s="2">
         <v>215</v>
       </c>
       <c r="G217" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7072,14 +7132,14 @@
         <v>93</v>
       </c>
       <c r="D218" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="F218">
+      <c r="F218" s="2">
         <v>216</v>
       </c>
       <c r="G218" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7090,17 +7150,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D219" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="F219">
+      <c r="F219" s="2">
         <v>217</v>
       </c>
       <c r="G219" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7111,17 +7171,17 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D220" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="F220">
+      <c r="F220" s="2">
         <v>218</v>
       </c>
       <c r="G220" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7132,17 +7192,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D221" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E221" s="2"/>
-      <c r="F221">
+      <c r="F221" s="2">
         <v>219</v>
       </c>
       <c r="G221" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,17 +7213,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D222" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E222" s="2"/>
-      <c r="F222">
+      <c r="F222" s="2">
         <v>220</v>
       </c>
       <c r="G222" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7174,17 +7234,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D223" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223">
+      <c r="F223" s="2">
         <v>221</v>
       </c>
       <c r="G223" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7195,17 +7255,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D224" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="F224">
+      <c r="F224" s="2">
         <v>222</v>
       </c>
       <c r="G224" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7216,17 +7276,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D225" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E225" s="2"/>
-      <c r="F225">
+      <c r="F225" s="2">
         <v>223</v>
       </c>
       <c r="G225" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7237,17 +7297,17 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D226" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E226" s="2"/>
-      <c r="F226">
+      <c r="F226" s="2">
         <v>224</v>
       </c>
       <c r="G226" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7258,17 +7318,17 @@
         <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D227" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E227" s="2"/>
-      <c r="F227">
+      <c r="F227" s="2">
         <v>225</v>
       </c>
       <c r="G227" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7279,17 +7339,17 @@
         <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D228" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="F228">
+      <c r="F228" s="2">
         <v>226</v>
       </c>
       <c r="G228" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7300,17 +7360,17 @@
         <v>199</v>
       </c>
       <c r="C229" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D229" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E229" s="2"/>
-      <c r="F229">
+      <c r="F229" s="2">
         <v>227</v>
       </c>
       <c r="G229" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7321,17 +7381,17 @@
         <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D230" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E230" s="2"/>
-      <c r="F230">
+      <c r="F230" s="2">
         <v>228</v>
       </c>
       <c r="G230" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7342,17 +7402,17 @@
         <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D231" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E231" s="2"/>
-      <c r="F231">
+      <c r="F231" s="2">
         <v>229</v>
       </c>
       <c r="G231" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7363,17 +7423,17 @@
         <v>199</v>
       </c>
       <c r="C232" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D232" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="E232" s="2"/>
-      <c r="F232">
+      <c r="F232" s="2">
         <v>230</v>
       </c>
       <c r="G232" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7384,17 +7444,17 @@
         <v>199</v>
       </c>
       <c r="C233" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D233" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E233" s="2"/>
-      <c r="F233">
+      <c r="F233" s="2">
         <v>231</v>
       </c>
       <c r="G233" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7405,17 +7465,17 @@
         <v>199</v>
       </c>
       <c r="C234" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D234" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="E234" s="2"/>
-      <c r="F234">
+      <c r="F234" s="2">
         <v>232</v>
       </c>
       <c r="G234" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7426,17 +7486,17 @@
         <v>199</v>
       </c>
       <c r="C235" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D235" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E235" s="2"/>
-      <c r="F235">
+      <c r="F235" s="2">
         <v>233</v>
       </c>
       <c r="G235" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7447,17 +7507,17 @@
         <v>199</v>
       </c>
       <c r="C236" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D236" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E236" s="2"/>
-      <c r="F236">
+      <c r="F236" s="2">
         <v>234</v>
       </c>
       <c r="G236" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7468,17 +7528,17 @@
         <v>199</v>
       </c>
       <c r="C237" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D237" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E237" s="2"/>
-      <c r="F237">
+      <c r="F237" s="2">
         <v>235</v>
       </c>
       <c r="G237" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7486,20 +7546,20 @@
         <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E238" s="2"/>
-      <c r="F238">
+      <c r="F238" s="2">
         <v>236</v>
       </c>
       <c r="G238" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7507,20 +7567,20 @@
         <v>200</v>
       </c>
       <c r="B239" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="D239" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="F239">
+      <c r="F239" s="2">
         <v>237</v>
       </c>
       <c r="G239" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7531,17 +7591,17 @@
         <v>201</v>
       </c>
       <c r="C240" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E240" s="2"/>
-      <c r="F240">
+      <c r="F240" s="2">
         <v>238</v>
       </c>
       <c r="G240" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7552,17 +7612,17 @@
         <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D241" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E241" s="2"/>
-      <c r="F241">
+      <c r="F241" s="2">
         <v>239</v>
       </c>
       <c r="G241" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7573,17 +7633,17 @@
         <v>201</v>
       </c>
       <c r="C242" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D242" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="F242">
+      <c r="F242" s="2">
         <v>240</v>
       </c>
       <c r="G242" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7594,17 +7654,17 @@
         <v>201</v>
       </c>
       <c r="C243" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D243" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E243" s="2"/>
-      <c r="F243">
+      <c r="F243" s="2">
         <v>241</v>
       </c>
       <c r="G243" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7618,14 +7678,14 @@
         <v>137</v>
       </c>
       <c r="D244" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244">
+      <c r="F244" s="2">
         <v>242</v>
       </c>
       <c r="G244" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7636,17 +7696,17 @@
         <v>201</v>
       </c>
       <c r="C245" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D245" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E245" s="2"/>
-      <c r="F245">
+      <c r="F245" s="2">
         <v>243</v>
       </c>
       <c r="G245" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7654,20 +7714,20 @@
         <v>200</v>
       </c>
       <c r="B246" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D246" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="F246">
+      <c r="F246" s="2">
         <v>244</v>
       </c>
       <c r="G246" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7675,20 +7735,20 @@
         <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>205</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>525</v>
+        <v>201</v>
+      </c>
+      <c r="C247" t="s">
+        <v>150</v>
+      </c>
+      <c r="D247" t="s">
+        <v>150</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <v>245</v>
       </c>
-      <c r="G247" s="2" t="s">
-        <v>530</v>
+      <c r="G247" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7702,14 +7762,14 @@
         <v>224</v>
       </c>
       <c r="D248" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E248" s="2"/>
-      <c r="F248">
+      <c r="F248" s="2">
         <v>246</v>
       </c>
       <c r="G248" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7719,18 +7779,18 @@
       <c r="B249" t="s">
         <v>205</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D249" t="s">
-        <v>45</v>
+      <c r="D249" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E249" s="2"/>
-      <c r="F249">
+      <c r="F249" s="2">
         <v>247</v>
       </c>
-      <c r="G249" t="s">
-        <v>485</v>
+      <c r="G249" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7744,14 +7804,14 @@
         <v>224</v>
       </c>
       <c r="D250" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E250" s="2"/>
-      <c r="F250">
+      <c r="F250" s="2">
         <v>248</v>
       </c>
       <c r="G250" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7765,14 +7825,14 @@
         <v>224</v>
       </c>
       <c r="D251" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E251" s="2"/>
-      <c r="F251">
+      <c r="F251" s="2">
         <v>249</v>
       </c>
       <c r="G251" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7786,14 +7846,14 @@
         <v>224</v>
       </c>
       <c r="D252" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="E252" s="2"/>
-      <c r="F252">
+      <c r="F252" s="2">
         <v>250</v>
       </c>
       <c r="G252" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7807,14 +7867,14 @@
         <v>224</v>
       </c>
       <c r="D253" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E253" s="2"/>
-      <c r="F253">
+      <c r="F253" s="2">
         <v>251</v>
       </c>
       <c r="G253" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7828,14 +7888,14 @@
         <v>224</v>
       </c>
       <c r="D254" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="E254" s="2"/>
-      <c r="F254">
+      <c r="F254" s="2">
         <v>252</v>
       </c>
       <c r="G254" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7849,14 +7909,14 @@
         <v>224</v>
       </c>
       <c r="D255" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="E255" s="2"/>
-      <c r="F255">
+      <c r="F255" s="2">
         <v>253</v>
       </c>
       <c r="G255" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7866,18 +7926,18 @@
       <c r="B256" t="s">
         <v>205</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" t="s">
         <v>224</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>527</v>
+      <c r="D256" t="s">
+        <v>121</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2">
         <v>254</v>
       </c>
-      <c r="G256" s="2" t="s">
-        <v>533</v>
+      <c r="G256" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7888,17 +7948,17 @@
         <v>205</v>
       </c>
       <c r="C257" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D257" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="E257" s="2"/>
-      <c r="F257">
+      <c r="F257" s="2">
         <v>255</v>
       </c>
       <c r="G257" t="s">
-        <v>312</v>
+        <v>490</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7908,18 +7968,18 @@
       <c r="B258" t="s">
         <v>205</v>
       </c>
-      <c r="C258" t="s">
-        <v>204</v>
-      </c>
-      <c r="D258" t="s">
-        <v>30</v>
+      <c r="C258" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="F258">
+      <c r="F258" s="2">
         <v>256</v>
       </c>
-      <c r="G258" t="s">
-        <v>454</v>
+      <c r="G258" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7933,14 +7993,14 @@
         <v>204</v>
       </c>
       <c r="D259" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E259" s="2"/>
-      <c r="F259">
+      <c r="F259" s="2">
         <v>257</v>
       </c>
       <c r="G259" t="s">
-        <v>456</v>
+        <v>312</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7954,14 +8014,14 @@
         <v>204</v>
       </c>
       <c r="D260" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="E260" s="2"/>
-      <c r="F260">
+      <c r="F260" s="2">
         <v>258</v>
       </c>
       <c r="G260" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7975,14 +8035,14 @@
         <v>204</v>
       </c>
       <c r="D261" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="E261" s="2"/>
-      <c r="F261">
+      <c r="F261" s="2">
         <v>259</v>
       </c>
       <c r="G261" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7993,20 +8053,63 @@
         <v>205</v>
       </c>
       <c r="C262" t="s">
+        <v>204</v>
+      </c>
+      <c r="D262" t="s">
+        <v>142</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2">
+        <v>260</v>
+      </c>
+      <c r="G262" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>200</v>
+      </c>
+      <c r="B263" t="s">
+        <v>205</v>
+      </c>
+      <c r="C263" t="s">
+        <v>204</v>
+      </c>
+      <c r="D263" t="s">
+        <v>169</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2">
+        <v>261</v>
+      </c>
+      <c r="G263" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>200</v>
+      </c>
+      <c r="B264" t="s">
+        <v>205</v>
+      </c>
+      <c r="C264" t="s">
         <v>264</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D264" t="s">
         <v>264</v>
       </c>
-      <c r="E262" s="2"/>
-      <c r="F262">
-        <v>260</v>
-      </c>
-      <c r="G262" t="s">
+      <c r="E264" s="2"/>
+      <c r="F264" s="2">
+        <v>262</v>
+      </c>
+      <c r="G264" t="s">
         <v>492</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
